--- a/QuanLyKhoHangLaptop/bin/database/DanhSachLaptop.xlsx
+++ b/QuanLyKhoHangLaptop/bin/database/DanhSachLaptop.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="122">
   <si>
     <t/>
   </si>
@@ -59,6 +59,18 @@
     <t>isDelete</t>
   </si>
   <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>4 GB</t>
+  </si>
+  <si>
+    <t>64 GB</t>
+  </si>
+  <si>
+    <t>ncc1</t>
+  </si>
+  <si>
     <t>GB15BR5</t>
   </si>
   <si>
@@ -257,16 +269,10 @@
     <t>ASUS</t>
   </si>
   <si>
-    <t>ncc1</t>
-  </si>
-  <si>
     <t>ROGSS18</t>
   </si>
   <si>
     <t>ASUS Gaming ROG Strix SCAR 18</t>
-  </si>
-  <si>
-    <t>64 GB</t>
   </si>
   <si>
     <t>18 inch, QHD+</t>
@@ -416,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -471,40 +477,40 @@
         <v>15</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s" s="0">
+      <c r="G2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>2024.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="J2" t="n" s="0">
-        <v>2023.0</v>
-      </c>
-      <c r="K2" t="n" s="0">
-        <v>1.869E7</v>
-      </c>
-      <c r="L2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M2" t="s" s="0">
-        <v>23</v>
       </c>
       <c r="N2" t="n" s="0">
         <v>0.0</v>
@@ -512,43 +518,43 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="I3" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>22</v>
-      </c>
       <c r="J3" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>1.699E7</v>
+        <v>1.869E7</v>
       </c>
       <c r="L3" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N3" t="n" s="0">
         <v>0.0</v>
@@ -556,43 +562,43 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>2023.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>1.699E7</v>
+      </c>
+      <c r="L4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="s" s="0">
         <v>27</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="J4" t="n" s="0">
-        <v>2023.0</v>
-      </c>
-      <c r="K4" t="n" s="0">
-        <v>2.899E7</v>
-      </c>
-      <c r="L4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M4" t="s" s="0">
-        <v>23</v>
       </c>
       <c r="N4" t="n" s="0">
         <v>0.0</v>
@@ -600,43 +606,43 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J5" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>6.499E7</v>
+        <v>2.899E7</v>
       </c>
       <c r="L5" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N5" t="n" s="0">
         <v>0.0</v>
@@ -644,43 +650,43 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="D6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="F6" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s" s="0">
+      <c r="G6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="F6" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>41</v>
-      </c>
       <c r="I6" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>1.4999E8</v>
+        <v>6.499E7</v>
       </c>
       <c r="L6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N6" t="n" s="0">
         <v>0.0</v>
@@ -688,43 +694,43 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="D7" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="F7" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="D7" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s" s="0">
+      <c r="G7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>46</v>
-      </c>
       <c r="I7" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>8490000.0</v>
+        <v>1.4999E8</v>
       </c>
       <c r="L7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N7" t="n" s="0">
         <v>0.0</v>
@@ -732,43 +738,43 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="C8" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="D8" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D8" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>45</v>
-      </c>
       <c r="F8" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="G8" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>52</v>
-      </c>
       <c r="I8" t="s" s="0">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>2020.0</v>
+        <v>2023.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>1.899E7</v>
+        <v>8490000.0</v>
       </c>
       <c r="L8" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="N8" t="n" s="0">
         <v>0.0</v>
@@ -776,43 +782,43 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="H9" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="I9" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s" s="0">
+      <c r="J9" t="n" s="0">
+        <v>2020.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>1.899E7</v>
+      </c>
+      <c r="L9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="s" s="0">
         <v>58</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="J9" t="n" s="0">
-        <v>2022.0</v>
-      </c>
-      <c r="K9" t="n" s="0">
-        <v>2.499E7</v>
-      </c>
-      <c r="L9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M9" t="s" s="0">
-        <v>54</v>
       </c>
       <c r="N9" t="n" s="0">
         <v>0.0</v>
@@ -826,37 +832,37 @@
         <v>60</v>
       </c>
       <c r="C10" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>53</v>
-      </c>
       <c r="J10" t="n" s="0">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>2.889E7</v>
+        <v>2.499E7</v>
       </c>
       <c r="L10" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N10" t="n" s="0">
         <v>0.0</v>
@@ -864,43 +870,43 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s" s="0">
         <v>65</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J11" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>3.899E7</v>
+        <v>2.889E7</v>
       </c>
       <c r="L11" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M11" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N11" t="n" s="0">
         <v>0.0</v>
@@ -920,31 +926,31 @@
         <v>68</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G12" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>65</v>
-      </c>
       <c r="I12" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J12" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>7.949E7</v>
+        <v>3.899E7</v>
       </c>
       <c r="L12" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M12" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N12" t="n" s="0">
         <v>0.0</v>
@@ -964,31 +970,31 @@
         <v>72</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J13" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>4.949E7</v>
+        <v>7.949E7</v>
       </c>
       <c r="L13" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M13" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N13" t="n" s="0">
         <v>0.0</v>
@@ -996,43 +1002,43 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G14" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="I14" t="s" s="0">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="J14" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>4.449E7</v>
+        <v>4.949E7</v>
       </c>
       <c r="L14" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M14" t="s" s="0">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="N14" t="n" s="0">
         <v>0.0</v>
@@ -1040,43 +1046,43 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="J15" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>6.949E7</v>
+        <v>4.449E7</v>
       </c>
       <c r="L15" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M15" t="s" s="0">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="N15" t="n" s="0">
         <v>0.0</v>
@@ -1084,43 +1090,43 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="D16" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s" s="0">
+      <c r="I16" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="F16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="I16" t="s" s="0">
-        <v>80</v>
-      </c>
       <c r="J16" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>1.2099E8</v>
+        <v>6.949E7</v>
       </c>
       <c r="L16" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M16" t="s" s="0">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="N16" t="n" s="0">
         <v>0.0</v>
@@ -1128,43 +1134,43 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="C17" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="G17" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H17" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="I17" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J17" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K17" t="n" s="0">
-        <v>7.249E7</v>
+        <v>1.2099E8</v>
       </c>
       <c r="L17" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M17" t="s" s="0">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="N17" t="n" s="0">
         <v>0.0</v>
@@ -1172,43 +1178,43 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="C18" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="C18" t="s" s="0">
-        <v>91</v>
-      </c>
       <c r="D18" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>2023.0</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>7.249E7</v>
+      </c>
+      <c r="L18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="G18" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H18" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="I18" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="J18" t="n" s="0">
-        <v>2023.0</v>
-      </c>
-      <c r="K18" t="n" s="0">
-        <v>2.199E7</v>
-      </c>
-      <c r="L18" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M18" t="s" s="0">
-        <v>81</v>
       </c>
       <c r="N18" t="n" s="0">
         <v>0.0</v>
@@ -1216,43 +1222,43 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="C19" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C19" t="s" s="0">
-        <v>94</v>
-      </c>
       <c r="D19" t="s" s="0">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>2023.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>2.199E7</v>
+      </c>
+      <c r="L19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="F19" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="G19" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H19" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="I19" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="J19" t="n" s="0">
-        <v>2023.0</v>
-      </c>
-      <c r="K19" t="n" s="0">
-        <v>2.829E7</v>
-      </c>
-      <c r="L19" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M19" t="s" s="0">
-        <v>81</v>
       </c>
       <c r="N19" t="n" s="0">
         <v>0.0</v>
@@ -1260,43 +1266,43 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="C20" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="C20" t="s" s="0">
-        <v>94</v>
-      </c>
       <c r="D20" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J20" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K20" t="n" s="0">
-        <v>3.349E7</v>
+        <v>2.829E7</v>
       </c>
       <c r="L20" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M20" t="s" s="0">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="N20" t="n" s="0">
         <v>0.0</v>
@@ -1310,37 +1316,37 @@
         <v>98</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="J21" t="n" s="0">
+        <v>2023.0</v>
+      </c>
+      <c r="K21" t="n" s="0">
+        <v>3.349E7</v>
+      </c>
+      <c r="L21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M21" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H21" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="I21" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="J21" t="n" s="0">
-        <v>2023.0</v>
-      </c>
-      <c r="K21" t="n" s="0">
-        <v>1.749E7</v>
-      </c>
-      <c r="L21" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M21" t="s" s="0">
-        <v>81</v>
       </c>
       <c r="N21" t="n" s="0">
         <v>0.0</v>
@@ -1348,43 +1354,43 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="D22" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="C22" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="D22" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="E22" t="s" s="0">
+      <c r="I22" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="J22" t="n" s="0">
+        <v>2023.0</v>
+      </c>
+      <c r="K22" t="n" s="0">
+        <v>1.749E7</v>
+      </c>
+      <c r="L22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M22" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="F22" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H22" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="I22" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="J22" t="n" s="0">
-        <v>2023.0</v>
-      </c>
-      <c r="K22" t="n" s="0">
-        <v>2.199E7</v>
-      </c>
-      <c r="L22" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M22" t="s" s="0">
-        <v>81</v>
       </c>
       <c r="N22" t="n" s="0">
         <v>0.0</v>
@@ -1392,43 +1398,43 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="C23" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="C23" t="s" s="0">
-        <v>91</v>
-      </c>
       <c r="D23" t="s" s="0">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="J23" t="n" s="0">
+        <v>2023.0</v>
+      </c>
+      <c r="K23" t="n" s="0">
+        <v>2.199E7</v>
+      </c>
+      <c r="L23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M23" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="F23" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H23" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="I23" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="J23" t="n" s="0">
-        <v>2023.0</v>
-      </c>
-      <c r="K23" t="n" s="0">
-        <v>1.649E7</v>
-      </c>
-      <c r="L23" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M23" t="s" s="0">
-        <v>81</v>
       </c>
       <c r="N23" t="n" s="0">
         <v>0.0</v>
@@ -1442,37 +1448,37 @@
         <v>107</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J24" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K24" t="n" s="0">
-        <v>9900000.0</v>
+        <v>1.649E7</v>
       </c>
       <c r="L24" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M24" t="s" s="0">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="N24" t="n" s="0">
         <v>0.0</v>
@@ -1480,43 +1486,43 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="D25" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="C25" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="E25" t="s" s="0">
+      <c r="I25" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="J25" t="n" s="0">
+        <v>2023.0</v>
+      </c>
+      <c r="K25" t="n" s="0">
+        <v>9900000.0</v>
+      </c>
+      <c r="L25" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M25" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="F25" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="G25" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H25" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="I25" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="J25" t="n" s="0">
-        <v>2023.0</v>
-      </c>
-      <c r="K25" t="n" s="0">
-        <v>1.549E7</v>
-      </c>
-      <c r="L25" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M25" t="s" s="0">
-        <v>81</v>
       </c>
       <c r="N25" t="n" s="0">
         <v>0.0</v>
@@ -1524,43 +1530,43 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="C26" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="C26" t="s" s="0">
-        <v>115</v>
-      </c>
       <c r="D26" t="s" s="0">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="J26" t="n" s="0">
+        <v>2023.0</v>
+      </c>
+      <c r="K26" t="n" s="0">
+        <v>1.549E7</v>
+      </c>
+      <c r="L26" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M26" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H26" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="I26" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="J26" t="n" s="0">
-        <v>2023.0</v>
-      </c>
-      <c r="K26" t="n" s="0">
-        <v>1.229E7</v>
-      </c>
-      <c r="L26" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M26" t="s" s="0">
-        <v>81</v>
       </c>
       <c r="N26" t="n" s="0">
         <v>0.0</v>
@@ -1568,45 +1574,89 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="C27" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="D27" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="J27" t="n" s="0">
+        <v>2023.0</v>
+      </c>
+      <c r="K27" t="n" s="0">
+        <v>1.229E7</v>
+      </c>
+      <c r="L27" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M27" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="N27" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="D27" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="E27" t="s" s="0">
+      <c r="B28" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="J28" t="n" s="0">
+        <v>2023.0</v>
+      </c>
+      <c r="K28" t="n" s="0">
+        <v>2.729E7</v>
+      </c>
+      <c r="L28" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M28" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="F27" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H27" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="I27" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="J27" t="n" s="0">
-        <v>2023.0</v>
-      </c>
-      <c r="K27" t="n" s="0">
-        <v>2.729E7</v>
-      </c>
-      <c r="L27" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M27" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="N27" t="n" s="0">
+      <c r="N28" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>

--- a/QuanLyKhoHangLaptop/bin/database/DanhSachLaptop.xlsx
+++ b/QuanLyKhoHangLaptop/bin/database/DanhSachLaptop.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="120">
   <si>
     <t/>
   </si>
@@ -59,220 +59,214 @@
     <t>isDelete</t>
   </si>
   <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>4 GB</t>
+    <t>GB15BR5</t>
+  </si>
+  <si>
+    <t>MSI Gaming Bravo 15 B7ED R5</t>
+  </si>
+  <si>
+    <t>Ryzen 5, 7535HS</t>
+  </si>
+  <si>
+    <t>16 GB</t>
+  </si>
+  <si>
+    <t>512 GB</t>
+  </si>
+  <si>
+    <t>Windows 11</t>
+  </si>
+  <si>
+    <t>15.6 inch, Full HD</t>
+  </si>
+  <si>
+    <t>MSI</t>
+  </si>
+  <si>
+    <t>ncc2</t>
+  </si>
+  <si>
+    <t>GG63T12U</t>
+  </si>
+  <si>
+    <t>MSI Gaming GF63 Thin 12UCX i5</t>
+  </si>
+  <si>
+    <t>intel i5, 12450H</t>
+  </si>
+  <si>
+    <t>GKAABR7</t>
+  </si>
+  <si>
+    <t>MSI Gaming Katana A15 AI B8VE R7</t>
+  </si>
+  <si>
+    <t>Ryzen 7, 8845HS</t>
+  </si>
+  <si>
+    <t>GS16AIS</t>
+  </si>
+  <si>
+    <t>MSI Gaming Stealth 16 AI Studio</t>
+  </si>
+  <si>
+    <t>Ultra 9, 185H</t>
+  </si>
+  <si>
+    <t>32 GB</t>
+  </si>
+  <si>
+    <t>2 TB</t>
+  </si>
+  <si>
+    <t>16 inch, QHD+</t>
+  </si>
+  <si>
+    <t>GT18HXAI9</t>
+  </si>
+  <si>
+    <t>MSI Gaming Titan 18 HX A14VIG i9</t>
+  </si>
+  <si>
+    <t>intel i9, 14900HX</t>
+  </si>
+  <si>
+    <t>128 GB</t>
+  </si>
+  <si>
+    <t>4 TB</t>
+  </si>
+  <si>
+    <t>18 inch, 4K/UHD+</t>
+  </si>
+  <si>
+    <t>M14C11I3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MSI Modern 14 C11M i3</t>
+  </si>
+  <si>
+    <t>intel i3, 1115G4</t>
+  </si>
+  <si>
+    <t>8 GB</t>
+  </si>
+  <si>
+    <t>14 inch, Full HD</t>
+  </si>
+  <si>
+    <t>MA13M1208C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MacBook Air 13 inch M1 2020 8-core </t>
+  </si>
+  <si>
+    <t>Apple M1</t>
+  </si>
+  <si>
+    <t>256 GB</t>
+  </si>
+  <si>
+    <t>macOS</t>
+  </si>
+  <si>
+    <t>13.3 inch, Retina</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>ncc3</t>
+  </si>
+  <si>
+    <t>MA13M222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MacBook Air 13 inch M2 8GB/256GB </t>
+  </si>
+  <si>
+    <t>Apple M2</t>
+  </si>
+  <si>
+    <t>13.6 inch, Liquid Retina</t>
+  </si>
+  <si>
+    <t>MA15M235W</t>
+  </si>
+  <si>
+    <t>MacBook Air 15 inch M2 35W</t>
+  </si>
+  <si>
+    <t>15.3 inch, Liquid Retina</t>
+  </si>
+  <si>
+    <t>MP14M3</t>
+  </si>
+  <si>
+    <t>MacBook Pro 14 inch M3 8GB/512GB</t>
+  </si>
+  <si>
+    <t>Apple M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2 inch, Liquid Retina </t>
+  </si>
+  <si>
+    <t>MP14M3M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MacBook Pro 14 inch M3 Max 36GB/1TB </t>
+  </si>
+  <si>
+    <t>Apple M3 Max</t>
+  </si>
+  <si>
+    <t>1 TB</t>
+  </si>
+  <si>
+    <t>MP14M3P</t>
+  </si>
+  <si>
+    <t>MacBook Pro 14 inch M3 Pro 18GB/512GB</t>
+  </si>
+  <si>
+    <t>Apple M3 Pro</t>
+  </si>
+  <si>
+    <t>P16STA1I</t>
+  </si>
+  <si>
+    <t>MSI Prestige 16 Studio A13VE i7</t>
+  </si>
+  <si>
+    <t>intel i7, 13700H</t>
+  </si>
+  <si>
+    <t>ROGSS17</t>
+  </si>
+  <si>
+    <t>ASUS Gaming ROG Strix SCAR 17</t>
+  </si>
+  <si>
+    <t>Ryzen 9, 7945HX</t>
+  </si>
+  <si>
+    <t>17.3 inch, WQHD</t>
+  </si>
+  <si>
+    <t>ASUS</t>
+  </si>
+  <si>
+    <t>ncc1</t>
+  </si>
+  <si>
+    <t>ROGSS18</t>
+  </si>
+  <si>
+    <t>ASUS Gaming ROG Strix SCAR 18</t>
   </si>
   <si>
     <t>64 GB</t>
-  </si>
-  <si>
-    <t>ncc1</t>
-  </si>
-  <si>
-    <t>GB15BR5</t>
-  </si>
-  <si>
-    <t>MSI Gaming Bravo 15 B7ED R5</t>
-  </si>
-  <si>
-    <t>Ryzen 5, 7535HS</t>
-  </si>
-  <si>
-    <t>16 GB</t>
-  </si>
-  <si>
-    <t>512 GB</t>
-  </si>
-  <si>
-    <t>Windows 11</t>
-  </si>
-  <si>
-    <t>15.6 inch, Full HD</t>
-  </si>
-  <si>
-    <t>MSI</t>
-  </si>
-  <si>
-    <t>ncc2</t>
-  </si>
-  <si>
-    <t>GG63T12U</t>
-  </si>
-  <si>
-    <t>MSI Gaming GF63 Thin 12UCX i5</t>
-  </si>
-  <si>
-    <t>intel i5, 12450H</t>
-  </si>
-  <si>
-    <t>GKAABR7</t>
-  </si>
-  <si>
-    <t>MSI Gaming Katana A15 AI B8VE R7</t>
-  </si>
-  <si>
-    <t>Ryzen 7, 8845HS</t>
-  </si>
-  <si>
-    <t>GS16AIS</t>
-  </si>
-  <si>
-    <t>MSI Gaming Stealth 16 AI Studio</t>
-  </si>
-  <si>
-    <t>Ultra 9, 185H</t>
-  </si>
-  <si>
-    <t>32 GB</t>
-  </si>
-  <si>
-    <t>2 TB</t>
-  </si>
-  <si>
-    <t>16 inch, QHD+</t>
-  </si>
-  <si>
-    <t>GT18HXAI9</t>
-  </si>
-  <si>
-    <t>MSI Gaming Titan 18 HX A14VIG i9</t>
-  </si>
-  <si>
-    <t>intel i9, 14900HX</t>
-  </si>
-  <si>
-    <t>128 GB</t>
-  </si>
-  <si>
-    <t>4 TB</t>
-  </si>
-  <si>
-    <t>18 inch, 4K/UHD+</t>
-  </si>
-  <si>
-    <t>M14C11I3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MSI Modern 14 C11M i3</t>
-  </si>
-  <si>
-    <t>intel i3, 1115G4</t>
-  </si>
-  <si>
-    <t>8 GB</t>
-  </si>
-  <si>
-    <t>14 inch, Full HD</t>
-  </si>
-  <si>
-    <t>MA13M1208C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacBook Air 13 inch M1 2020 8-core </t>
-  </si>
-  <si>
-    <t>Apple M1</t>
-  </si>
-  <si>
-    <t>256 GB</t>
-  </si>
-  <si>
-    <t>macOS</t>
-  </si>
-  <si>
-    <t>13.3 inch, Retina</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>ncc3</t>
-  </si>
-  <si>
-    <t>MA13M222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacBook Air 13 inch M2 8GB/256GB </t>
-  </si>
-  <si>
-    <t>Apple M2</t>
-  </si>
-  <si>
-    <t>13.6 inch, Liquid Retina</t>
-  </si>
-  <si>
-    <t>MA15M235W</t>
-  </si>
-  <si>
-    <t>MacBook Air 15 inch M2 35W</t>
-  </si>
-  <si>
-    <t>15.3 inch, Liquid Retina</t>
-  </si>
-  <si>
-    <t>MP14M3</t>
-  </si>
-  <si>
-    <t>MacBook Pro 14 inch M3 8GB/512GB</t>
-  </si>
-  <si>
-    <t>Apple M3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2 inch, Liquid Retina </t>
-  </si>
-  <si>
-    <t>MP14M3M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacBook Pro 14 inch M3 Max 36GB/1TB </t>
-  </si>
-  <si>
-    <t>Apple M3 Max</t>
-  </si>
-  <si>
-    <t>1 TB</t>
-  </si>
-  <si>
-    <t>MP14M3P</t>
-  </si>
-  <si>
-    <t>MacBook Pro 14 inch M3 Pro 18GB/512GB</t>
-  </si>
-  <si>
-    <t>Apple M3 Pro</t>
-  </si>
-  <si>
-    <t>P16STA1I</t>
-  </si>
-  <si>
-    <t>MSI Prestige 16 Studio A13VE i7</t>
-  </si>
-  <si>
-    <t>intel i7, 13700H</t>
-  </si>
-  <si>
-    <t>ROGSS17</t>
-  </si>
-  <si>
-    <t>ASUS Gaming ROG Strix SCAR 17</t>
-  </si>
-  <si>
-    <t>Ryzen 9, 7945HX</t>
-  </si>
-  <si>
-    <t>17.3 inch, WQHD</t>
-  </si>
-  <si>
-    <t>ASUS</t>
-  </si>
-  <si>
-    <t>ROGSS18</t>
-  </si>
-  <si>
-    <t>ASUS Gaming ROG Strix SCAR 18</t>
   </si>
   <si>
     <t>18 inch, QHD+</t>
@@ -422,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -477,40 +471,40 @@
         <v>15</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>2024.0</v>
+        <v>2023.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>0.0</v>
+        <v>1.869E7</v>
       </c>
       <c r="L2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N2" t="n" s="0">
         <v>0.0</v>
@@ -518,43 +512,43 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="G3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s" s="0">
+      <c r="I3" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="J3" t="n" s="0">
+        <v>2023.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>1.699E7</v>
+      </c>
+      <c r="L3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="J3" t="n" s="0">
-        <v>2023.0</v>
-      </c>
-      <c r="K3" t="n" s="0">
-        <v>1.869E7</v>
-      </c>
-      <c r="L3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="s" s="0">
-        <v>27</v>
       </c>
       <c r="N3" t="n" s="0">
         <v>0.0</v>
@@ -562,43 +556,43 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>30</v>
-      </c>
       <c r="D4" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="J4" t="n" s="0">
+        <v>2023.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>2.899E7</v>
+      </c>
+      <c r="L4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="J4" t="n" s="0">
-        <v>2023.0</v>
-      </c>
-      <c r="K4" t="n" s="0">
-        <v>1.699E7</v>
-      </c>
-      <c r="L4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M4" t="s" s="0">
-        <v>27</v>
       </c>
       <c r="N4" t="n" s="0">
         <v>0.0</v>
@@ -606,43 +600,43 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="D5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s" s="0">
+      <c r="F5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="J5" t="n" s="0">
+        <v>2023.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>6.499E7</v>
+      </c>
+      <c r="L5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="J5" t="n" s="0">
-        <v>2023.0</v>
-      </c>
-      <c r="K5" t="n" s="0">
-        <v>2.899E7</v>
-      </c>
-      <c r="L5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M5" t="s" s="0">
-        <v>27</v>
       </c>
       <c r="N5" t="n" s="0">
         <v>0.0</v>
@@ -650,43 +644,43 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J6" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>6.499E7</v>
+        <v>1.4999E8</v>
       </c>
       <c r="L6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N6" t="n" s="0">
         <v>0.0</v>
@@ -694,43 +688,43 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>1.4999E8</v>
+        <v>8490000.0</v>
       </c>
       <c r="L7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N7" t="n" s="0">
         <v>0.0</v>
@@ -738,43 +732,43 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>2023.0</v>
+        <v>2020.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>8490000.0</v>
+        <v>1.899E7</v>
       </c>
       <c r="L8" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N8" t="n" s="0">
         <v>0.0</v>
@@ -782,43 +776,43 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s" s="0">
+      <c r="H9" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s" s="0">
+      <c r="J9" t="n" s="0">
+        <v>2022.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>2.499E7</v>
+      </c>
+      <c r="L9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="J9" t="n" s="0">
-        <v>2020.0</v>
-      </c>
-      <c r="K9" t="n" s="0">
-        <v>1.899E7</v>
-      </c>
-      <c r="L9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M9" t="s" s="0">
-        <v>58</v>
       </c>
       <c r="N9" t="n" s="0">
         <v>0.0</v>
@@ -832,37 +826,37 @@
         <v>60</v>
       </c>
       <c r="C10" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s" s="0">
+      <c r="I10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>2023.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>2.889E7</v>
+      </c>
+      <c r="L10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="J10" t="n" s="0">
-        <v>2022.0</v>
-      </c>
-      <c r="K10" t="n" s="0">
-        <v>2.499E7</v>
-      </c>
-      <c r="L10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M10" t="s" s="0">
-        <v>58</v>
       </c>
       <c r="N10" t="n" s="0">
         <v>0.0</v>
@@ -870,43 +864,43 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="C11" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>61</v>
-      </c>
       <c r="D11" t="s" s="0">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="0">
         <v>65</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J11" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>2.889E7</v>
+        <v>3.899E7</v>
       </c>
       <c r="L11" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M11" t="s" s="0">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N11" t="n" s="0">
         <v>0.0</v>
@@ -926,31 +920,31 @@
         <v>68</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J12" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>3.899E7</v>
+        <v>7.949E7</v>
       </c>
       <c r="L12" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M12" t="s" s="0">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N12" t="n" s="0">
         <v>0.0</v>
@@ -970,31 +964,31 @@
         <v>72</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J13" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>7.949E7</v>
+        <v>4.949E7</v>
       </c>
       <c r="L13" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M13" t="s" s="0">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N13" t="n" s="0">
         <v>0.0</v>
@@ -1002,43 +996,43 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="C14" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>76</v>
-      </c>
       <c r="D14" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="J14" t="n" s="0">
+        <v>2023.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>4.449E7</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="I14" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="J14" t="n" s="0">
-        <v>2023.0</v>
-      </c>
-      <c r="K14" t="n" s="0">
-        <v>4.949E7</v>
-      </c>
-      <c r="L14" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M14" t="s" s="0">
-        <v>58</v>
       </c>
       <c r="N14" t="n" s="0">
         <v>0.0</v>
@@ -1046,43 +1040,43 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="C15" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="D15" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="D15" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="G15" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H15" t="s" s="0">
-        <v>39</v>
-      </c>
       <c r="I15" t="s" s="0">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="J15" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>4.449E7</v>
+        <v>6.949E7</v>
       </c>
       <c r="L15" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M15" t="s" s="0">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="N15" t="n" s="0">
         <v>0.0</v>
@@ -1090,43 +1084,43 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="J16" t="n" s="0">
+        <v>2023.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>1.2099E8</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="s" s="0">
         <v>81</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="G16" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="I16" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="J16" t="n" s="0">
-        <v>2023.0</v>
-      </c>
-      <c r="K16" t="n" s="0">
-        <v>6.949E7</v>
-      </c>
-      <c r="L16" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M16" t="s" s="0">
-        <v>18</v>
       </c>
       <c r="N16" t="n" s="0">
         <v>0.0</v>
@@ -1134,43 +1128,43 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J17" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K17" t="n" s="0">
-        <v>1.2099E8</v>
+        <v>7.249E7</v>
       </c>
       <c r="L17" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M17" t="s" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="N17" t="n" s="0">
         <v>0.0</v>
@@ -1178,43 +1172,43 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J18" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K18" t="n" s="0">
-        <v>7.249E7</v>
+        <v>2.199E7</v>
       </c>
       <c r="L18" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M18" t="s" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="N18" t="n" s="0">
         <v>0.0</v>
@@ -1222,43 +1216,43 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J19" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K19" t="n" s="0">
-        <v>2.199E7</v>
+        <v>2.829E7</v>
       </c>
       <c r="L19" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M19" t="s" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="N19" t="n" s="0">
         <v>0.0</v>
@@ -1266,43 +1260,43 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>96</v>
-      </c>
       <c r="D20" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J20" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K20" t="n" s="0">
-        <v>2.829E7</v>
+        <v>3.349E7</v>
       </c>
       <c r="L20" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M20" t="s" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="N20" t="n" s="0">
         <v>0.0</v>
@@ -1316,37 +1310,37 @@
         <v>98</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J21" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K21" t="n" s="0">
-        <v>3.349E7</v>
+        <v>1.749E7</v>
       </c>
       <c r="L21" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M21" t="s" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="N21" t="n" s="0">
         <v>0.0</v>
@@ -1354,43 +1348,43 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J22" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K22" t="n" s="0">
-        <v>1.749E7</v>
+        <v>2.199E7</v>
       </c>
       <c r="L22" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M22" t="s" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="N22" t="n" s="0">
         <v>0.0</v>
@@ -1398,43 +1392,43 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J23" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K23" t="n" s="0">
-        <v>2.199E7</v>
+        <v>1.649E7</v>
       </c>
       <c r="L23" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M23" t="s" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="N23" t="n" s="0">
         <v>0.0</v>
@@ -1448,37 +1442,37 @@
         <v>107</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J24" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K24" t="n" s="0">
-        <v>1.649E7</v>
+        <v>9900000.0</v>
       </c>
       <c r="L24" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M24" t="s" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="N24" t="n" s="0">
         <v>0.0</v>
@@ -1486,43 +1480,43 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J25" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K25" t="n" s="0">
-        <v>9900000.0</v>
+        <v>1.549E7</v>
       </c>
       <c r="L25" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M25" t="s" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="N25" t="n" s="0">
         <v>0.0</v>
@@ -1530,43 +1524,43 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="I26" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J26" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K26" t="n" s="0">
-        <v>1.549E7</v>
+        <v>1.229E7</v>
       </c>
       <c r="L26" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M26" t="s" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="N26" t="n" s="0">
         <v>0.0</v>
@@ -1574,89 +1568,45 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J27" t="n" s="0">
         <v>2023.0</v>
       </c>
       <c r="K27" t="n" s="0">
-        <v>1.229E7</v>
+        <v>2.729E7</v>
       </c>
       <c r="L27" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M27" t="s" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="N27" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="D28" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="E28" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H28" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="I28" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="J28" t="n" s="0">
-        <v>2023.0</v>
-      </c>
-      <c r="K28" t="n" s="0">
-        <v>2.729E7</v>
-      </c>
-      <c r="L28" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M28" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N28" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
